--- a/Template/Example/Допсоглашения.xlsx
+++ b/Template/Example/Допсоглашения.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\ImportData\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_reposites\rx-util-importdata\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Ошибки" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист 1'!$A$1:$T$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист 1'!$A$1:$U$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Содержание</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Не указана группа регистрации в журнале регистрации</t>
+  </si>
+  <si>
+    <t>Наша организация</t>
+  </si>
+  <si>
+    <t>ООО "Наша организация"</t>
   </si>
 </sst>
 </file>
@@ -740,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -755,23 +761,24 @@
     <col min="5" max="5" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="9" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="46" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="9"/>
+    <col min="8" max="8" width="19" style="9" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="46" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
@@ -794,46 +801,49 @@
         <v>0</v>
       </c>
       <c r="H1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -856,42 +866,45 @@
         <v>33</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>40452</v>
       </c>
-      <c r="K2" s="29">
+      <c r="L2" s="29">
         <v>40482</v>
       </c>
-      <c r="L2" s="30">
+      <c r="M2" s="30">
         <v>1000</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="S2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="T2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="U2" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="8"/>
       <c r="C3" s="3"/>
@@ -900,20 +913,21 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="32"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="32"/>
       <c r="T3" s="32"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" s="32"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="8"/>
       <c r="C4" s="3"/>
@@ -922,20 +936,21 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="32"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="32"/>
       <c r="T4" s="32"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" s="32"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
       <c r="C5" s="3"/>
@@ -944,20 +959,21 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="32"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5" s="32"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="8"/>
       <c r="C6" s="3"/>
@@ -966,26 +982,27 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="32"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="32"/>
       <c r="T6" s="32"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" s="32"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:T7"/>
+  <autoFilter ref="A1:U7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
